--- a/Путевка Шаблон.xlsx
+++ b/Путевка Шаблон.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="945" windowWidth="14805" windowHeight="7170" tabRatio="871"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="871"/>
   </bookViews>
   <sheets>
     <sheet name="Дронин Г. А." sheetId="23" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>ПУТЕВОЙ ЛИСТ АВТОБУСА</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>до</t>
-  </si>
-  <si>
-    <t>(наименование)</t>
   </si>
   <si>
     <t>Номер</t>
@@ -1130,9 +1127,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1141,6 +1135,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1166,6 +1163,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1214,7 +1214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1249,7 +1249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1460,7 +1460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EG72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="CI7" sqref="CI7:DJ8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6047,7 +6049,7 @@
       <c r="BQ2" s="60"/>
       <c r="BR2" s="60"/>
       <c r="BS2" s="178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BT2" s="178"/>
       <c r="BU2" s="178"/>
@@ -6056,7 +6058,7 @@
       <c r="BX2" s="178"/>
       <c r="BY2" s="178"/>
       <c r="BZ2" s="179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="CA2" s="179"/>
       <c r="CB2" s="179"/>
@@ -6070,7 +6072,7 @@
       <c r="CH2" s="6"/>
       <c r="CI2" s="61"/>
       <c r="CJ2" s="179" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CK2" s="179"/>
       <c r="CL2" s="179"/>
@@ -6211,7 +6213,7 @@
       </c>
       <c r="AM4" s="13"/>
       <c r="AN4" s="167" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AO4" s="167"/>
       <c r="AP4" s="167"/>
@@ -6220,7 +6222,7 @@
       </c>
       <c r="AR4" s="13"/>
       <c r="AS4" s="171" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AT4" s="171"/>
       <c r="AU4" s="171"/>
@@ -6239,7 +6241,7 @@
       <c r="BH4" s="171"/>
       <c r="BI4" s="14"/>
       <c r="BJ4" s="180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BK4" s="180"/>
       <c r="BL4" s="180"/>
@@ -6258,7 +6260,7 @@
         <v>2</v>
       </c>
       <c r="BY4" s="167" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BZ4" s="167"/>
       <c r="CA4" s="167"/>
@@ -6270,7 +6272,7 @@
       <c r="CE4" s="13"/>
       <c r="CF4" s="13"/>
       <c r="CG4" s="181" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CH4" s="181"/>
       <c r="CI4" s="181"/>
@@ -6292,7 +6294,7 @@
       <c r="CY4" s="181"/>
       <c r="CZ4" s="59"/>
       <c r="DA4" s="171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DB4" s="171"/>
       <c r="DC4" s="171"/>
@@ -6430,7 +6432,7 @@
     <row r="6" spans="1:137" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="172" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="172"/>
       <c r="D6" s="172"/>
@@ -6479,7 +6481,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="20"/>
       <c r="AW6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AX6" s="73"/>
       <c r="AY6" s="73"/>
@@ -6500,7 +6502,7 @@
       <c r="BN6" s="21"/>
       <c r="BO6" s="9"/>
       <c r="BQ6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BR6" s="10"/>
       <c r="BS6" s="10"/>
@@ -6534,10 +6536,10 @@
       <c r="CU6" s="10"/>
       <c r="CV6" s="10"/>
       <c r="CW6" s="10"/>
-      <c r="CX6" s="21"/>
-      <c r="CY6" s="21"/>
+      <c r="CX6" s="10"/>
+      <c r="CY6" s="10"/>
       <c r="CZ6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="DA6" s="10"/>
       <c r="DB6" s="10"/>
@@ -6567,125 +6569,125 @@
     </row>
     <row r="7" spans="1:137" s="11" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="173" t="s">
-        <v>62</v>
+      <c r="B7" s="176" t="s">
+        <v>61</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
-      <c r="AB7" s="173"/>
-      <c r="AC7" s="173"/>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="173"/>
-      <c r="AF7" s="173"/>
-      <c r="AG7" s="173"/>
-      <c r="AH7" s="173"/>
-      <c r="AI7" s="173"/>
-      <c r="AJ7" s="173"/>
-      <c r="AK7" s="173"/>
-      <c r="AL7" s="173"/>
-      <c r="AM7" s="173"/>
-      <c r="AN7" s="173"/>
-      <c r="AO7" s="173"/>
-      <c r="AP7" s="173"/>
-      <c r="AQ7" s="173"/>
-      <c r="AR7" s="173"/>
-      <c r="AS7" s="173"/>
-      <c r="AT7" s="173"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="176"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="176"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
+      <c r="V7" s="176"/>
+      <c r="W7" s="176"/>
+      <c r="X7" s="176"/>
+      <c r="Y7" s="176"/>
+      <c r="Z7" s="176"/>
+      <c r="AA7" s="176"/>
+      <c r="AB7" s="176"/>
+      <c r="AC7" s="176"/>
+      <c r="AD7" s="176"/>
+      <c r="AE7" s="176"/>
+      <c r="AF7" s="176"/>
+      <c r="AG7" s="176"/>
+      <c r="AH7" s="176"/>
+      <c r="AI7" s="176"/>
+      <c r="AJ7" s="176"/>
+      <c r="AK7" s="176"/>
+      <c r="AL7" s="176"/>
+      <c r="AM7" s="176"/>
+      <c r="AN7" s="176"/>
+      <c r="AO7" s="176"/>
+      <c r="AP7" s="176"/>
+      <c r="AQ7" s="176"/>
+      <c r="AR7" s="176"/>
+      <c r="AS7" s="176"/>
+      <c r="AT7" s="176"/>
       <c r="AU7" s="1"/>
       <c r="AV7" s="20"/>
-      <c r="AW7" s="174" t="s">
-        <v>69</v>
+      <c r="AW7" s="173" t="s">
+        <v>68</v>
       </c>
-      <c r="AX7" s="174"/>
-      <c r="AY7" s="174"/>
-      <c r="AZ7" s="174"/>
-      <c r="BA7" s="174"/>
-      <c r="BB7" s="174"/>
-      <c r="BC7" s="174"/>
-      <c r="BD7" s="174"/>
-      <c r="BE7" s="174"/>
-      <c r="BF7" s="174"/>
-      <c r="BG7" s="174"/>
-      <c r="BH7" s="174"/>
-      <c r="BI7" s="174"/>
-      <c r="BJ7" s="174"/>
-      <c r="BK7" s="174"/>
-      <c r="BL7" s="174"/>
-      <c r="BM7" s="174"/>
-      <c r="BN7" s="174"/>
-      <c r="BO7" s="174"/>
-      <c r="BP7" s="174"/>
-      <c r="BQ7" s="174"/>
-      <c r="BR7" s="174"/>
-      <c r="BS7" s="174"/>
-      <c r="BT7" s="174"/>
-      <c r="BU7" s="174"/>
-      <c r="BV7" s="174"/>
-      <c r="BW7" s="174"/>
-      <c r="BX7" s="174"/>
-      <c r="BY7" s="174"/>
-      <c r="BZ7" s="174"/>
-      <c r="CA7" s="174"/>
-      <c r="CB7" s="174"/>
-      <c r="CC7" s="174"/>
-      <c r="CD7" s="174"/>
-      <c r="CE7" s="174"/>
-      <c r="CF7" s="174"/>
+      <c r="AX7" s="173"/>
+      <c r="AY7" s="173"/>
+      <c r="AZ7" s="173"/>
+      <c r="BA7" s="173"/>
+      <c r="BB7" s="173"/>
+      <c r="BC7" s="173"/>
+      <c r="BD7" s="173"/>
+      <c r="BE7" s="173"/>
+      <c r="BF7" s="173"/>
+      <c r="BG7" s="173"/>
+      <c r="BH7" s="173"/>
+      <c r="BI7" s="173"/>
+      <c r="BJ7" s="173"/>
+      <c r="BK7" s="173"/>
+      <c r="BL7" s="173"/>
+      <c r="BM7" s="173"/>
+      <c r="BN7" s="173"/>
+      <c r="BO7" s="173"/>
+      <c r="BP7" s="173"/>
+      <c r="BQ7" s="173"/>
+      <c r="BR7" s="173"/>
+      <c r="BS7" s="173"/>
+      <c r="BT7" s="173"/>
+      <c r="BU7" s="173"/>
+      <c r="BV7" s="173"/>
+      <c r="BW7" s="173"/>
+      <c r="BX7" s="173"/>
+      <c r="BY7" s="173"/>
+      <c r="BZ7" s="173"/>
+      <c r="CA7" s="173"/>
+      <c r="CB7" s="173"/>
+      <c r="CC7" s="173"/>
+      <c r="CD7" s="173"/>
+      <c r="CE7" s="173"/>
+      <c r="CF7" s="173"/>
       <c r="CG7" s="35"/>
       <c r="CH7" s="35"/>
-      <c r="CI7" s="175" t="s">
-        <v>35</v>
+      <c r="CI7" s="174" t="s">
+        <v>34</v>
       </c>
-      <c r="CJ7" s="175"/>
-      <c r="CK7" s="175"/>
-      <c r="CL7" s="175"/>
-      <c r="CM7" s="175"/>
-      <c r="CN7" s="175"/>
-      <c r="CO7" s="175"/>
-      <c r="CP7" s="175"/>
-      <c r="CQ7" s="175"/>
-      <c r="CR7" s="175"/>
-      <c r="CS7" s="175"/>
-      <c r="CT7" s="175"/>
-      <c r="CU7" s="175"/>
-      <c r="CV7" s="175"/>
-      <c r="CW7" s="175"/>
-      <c r="CX7" s="175"/>
-      <c r="CY7" s="175"/>
-      <c r="CZ7" s="175"/>
-      <c r="DA7" s="175"/>
-      <c r="DB7" s="175"/>
-      <c r="DC7" s="175"/>
-      <c r="DD7" s="175"/>
-      <c r="DE7" s="175"/>
-      <c r="DF7" s="175"/>
-      <c r="DG7" s="175"/>
-      <c r="DH7" s="175"/>
-      <c r="DI7" s="175"/>
-      <c r="DJ7" s="175"/>
+      <c r="CJ7" s="174"/>
+      <c r="CK7" s="174"/>
+      <c r="CL7" s="174"/>
+      <c r="CM7" s="174"/>
+      <c r="CN7" s="174"/>
+      <c r="CO7" s="174"/>
+      <c r="CP7" s="174"/>
+      <c r="CQ7" s="174"/>
+      <c r="CR7" s="174"/>
+      <c r="CS7" s="174"/>
+      <c r="CT7" s="174"/>
+      <c r="CU7" s="174"/>
+      <c r="CV7" s="174"/>
+      <c r="CW7" s="174"/>
+      <c r="CX7" s="174"/>
+      <c r="CY7" s="174"/>
+      <c r="CZ7" s="174"/>
+      <c r="DA7" s="174"/>
+      <c r="DB7" s="174"/>
+      <c r="DC7" s="174"/>
+      <c r="DD7" s="174"/>
+      <c r="DE7" s="174"/>
+      <c r="DF7" s="174"/>
+      <c r="DG7" s="174"/>
+      <c r="DH7" s="174"/>
+      <c r="DI7" s="174"/>
+      <c r="DJ7" s="174"/>
       <c r="DK7" s="47"/>
       <c r="DL7" s="47"/>
       <c r="DM7" s="47"/>
@@ -6704,119 +6706,119 @@
     </row>
     <row r="8" spans="1:137" s="11" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="167"/>
-      <c r="P8" s="167"/>
-      <c r="Q8" s="167"/>
-      <c r="R8" s="167"/>
-      <c r="S8" s="167"/>
-      <c r="T8" s="167"/>
-      <c r="U8" s="167"/>
-      <c r="V8" s="167"/>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167"/>
-      <c r="Y8" s="167"/>
-      <c r="Z8" s="167"/>
-      <c r="AA8" s="167"/>
-      <c r="AB8" s="167"/>
-      <c r="AC8" s="167"/>
-      <c r="AD8" s="167"/>
-      <c r="AE8" s="167"/>
-      <c r="AF8" s="167"/>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167"/>
-      <c r="AI8" s="167"/>
-      <c r="AJ8" s="167"/>
-      <c r="AK8" s="167"/>
-      <c r="AL8" s="167"/>
-      <c r="AM8" s="167"/>
-      <c r="AN8" s="167"/>
-      <c r="AO8" s="167"/>
-      <c r="AP8" s="167"/>
-      <c r="AQ8" s="167"/>
-      <c r="AR8" s="167"/>
-      <c r="AS8" s="167"/>
-      <c r="AT8" s="167"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="176"/>
+      <c r="M8" s="176"/>
+      <c r="N8" s="176"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="176"/>
+      <c r="Y8" s="176"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="176"/>
+      <c r="AB8" s="176"/>
+      <c r="AC8" s="176"/>
+      <c r="AD8" s="176"/>
+      <c r="AE8" s="176"/>
+      <c r="AF8" s="176"/>
+      <c r="AG8" s="176"/>
+      <c r="AH8" s="176"/>
+      <c r="AI8" s="176"/>
+      <c r="AJ8" s="176"/>
+      <c r="AK8" s="176"/>
+      <c r="AL8" s="176"/>
+      <c r="AM8" s="176"/>
+      <c r="AN8" s="176"/>
+      <c r="AO8" s="176"/>
+      <c r="AP8" s="176"/>
+      <c r="AQ8" s="176"/>
+      <c r="AR8" s="176"/>
+      <c r="AS8" s="176"/>
+      <c r="AT8" s="176"/>
       <c r="AU8" s="1"/>
       <c r="AV8" s="19"/>
-      <c r="AW8" s="174"/>
-      <c r="AX8" s="174"/>
-      <c r="AY8" s="174"/>
-      <c r="AZ8" s="174"/>
-      <c r="BA8" s="174"/>
-      <c r="BB8" s="174"/>
-      <c r="BC8" s="174"/>
-      <c r="BD8" s="174"/>
-      <c r="BE8" s="174"/>
-      <c r="BF8" s="174"/>
-      <c r="BG8" s="174"/>
-      <c r="BH8" s="174"/>
-      <c r="BI8" s="174"/>
-      <c r="BJ8" s="174"/>
-      <c r="BK8" s="174"/>
-      <c r="BL8" s="174"/>
-      <c r="BM8" s="174"/>
-      <c r="BN8" s="174"/>
-      <c r="BO8" s="174"/>
-      <c r="BP8" s="174"/>
-      <c r="BQ8" s="174"/>
-      <c r="BR8" s="174"/>
-      <c r="BS8" s="174"/>
-      <c r="BT8" s="174"/>
-      <c r="BU8" s="174"/>
-      <c r="BV8" s="174"/>
-      <c r="BW8" s="174"/>
-      <c r="BX8" s="174"/>
-      <c r="BY8" s="174"/>
-      <c r="BZ8" s="174"/>
-      <c r="CA8" s="174"/>
-      <c r="CB8" s="174"/>
-      <c r="CC8" s="174"/>
-      <c r="CD8" s="174"/>
-      <c r="CE8" s="174"/>
-      <c r="CF8" s="174"/>
+      <c r="AW8" s="173"/>
+      <c r="AX8" s="173"/>
+      <c r="AY8" s="173"/>
+      <c r="AZ8" s="173"/>
+      <c r="BA8" s="173"/>
+      <c r="BB8" s="173"/>
+      <c r="BC8" s="173"/>
+      <c r="BD8" s="173"/>
+      <c r="BE8" s="173"/>
+      <c r="BF8" s="173"/>
+      <c r="BG8" s="173"/>
+      <c r="BH8" s="173"/>
+      <c r="BI8" s="173"/>
+      <c r="BJ8" s="173"/>
+      <c r="BK8" s="173"/>
+      <c r="BL8" s="173"/>
+      <c r="BM8" s="173"/>
+      <c r="BN8" s="173"/>
+      <c r="BO8" s="173"/>
+      <c r="BP8" s="173"/>
+      <c r="BQ8" s="173"/>
+      <c r="BR8" s="173"/>
+      <c r="BS8" s="173"/>
+      <c r="BT8" s="173"/>
+      <c r="BU8" s="173"/>
+      <c r="BV8" s="173"/>
+      <c r="BW8" s="173"/>
+      <c r="BX8" s="173"/>
+      <c r="BY8" s="173"/>
+      <c r="BZ8" s="173"/>
+      <c r="CA8" s="173"/>
+      <c r="CB8" s="173"/>
+      <c r="CC8" s="173"/>
+      <c r="CD8" s="173"/>
+      <c r="CE8" s="173"/>
+      <c r="CF8" s="173"/>
       <c r="CG8" s="35"/>
       <c r="CH8" s="35"/>
-      <c r="CI8" s="176"/>
-      <c r="CJ8" s="176"/>
-      <c r="CK8" s="176"/>
-      <c r="CL8" s="176"/>
-      <c r="CM8" s="176"/>
-      <c r="CN8" s="176"/>
-      <c r="CO8" s="176"/>
-      <c r="CP8" s="176"/>
-      <c r="CQ8" s="176"/>
-      <c r="CR8" s="176"/>
-      <c r="CS8" s="176"/>
-      <c r="CT8" s="176"/>
-      <c r="CU8" s="176"/>
-      <c r="CV8" s="176"/>
-      <c r="CW8" s="176"/>
-      <c r="CX8" s="176"/>
-      <c r="CY8" s="176"/>
-      <c r="CZ8" s="176"/>
-      <c r="DA8" s="176"/>
-      <c r="DB8" s="176"/>
-      <c r="DC8" s="176"/>
-      <c r="DD8" s="176"/>
-      <c r="DE8" s="176"/>
-      <c r="DF8" s="176"/>
-      <c r="DG8" s="176"/>
-      <c r="DH8" s="176"/>
-      <c r="DI8" s="176"/>
-      <c r="DJ8" s="176"/>
+      <c r="CI8" s="175"/>
+      <c r="CJ8" s="175"/>
+      <c r="CK8" s="175"/>
+      <c r="CL8" s="175"/>
+      <c r="CM8" s="175"/>
+      <c r="CN8" s="175"/>
+      <c r="CO8" s="175"/>
+      <c r="CP8" s="175"/>
+      <c r="CQ8" s="175"/>
+      <c r="CR8" s="175"/>
+      <c r="CS8" s="175"/>
+      <c r="CT8" s="175"/>
+      <c r="CU8" s="175"/>
+      <c r="CV8" s="175"/>
+      <c r="CW8" s="175"/>
+      <c r="CX8" s="175"/>
+      <c r="CY8" s="175"/>
+      <c r="CZ8" s="175"/>
+      <c r="DA8" s="175"/>
+      <c r="DB8" s="175"/>
+      <c r="DC8" s="175"/>
+      <c r="DD8" s="175"/>
+      <c r="DE8" s="175"/>
+      <c r="DF8" s="175"/>
+      <c r="DG8" s="175"/>
+      <c r="DH8" s="175"/>
+      <c r="DI8" s="175"/>
+      <c r="DJ8" s="175"/>
       <c r="DK8" s="47"/>
       <c r="DL8" s="47"/>
       <c r="DM8" s="47"/>
@@ -6835,57 +6837,55 @@
     </row>
     <row r="9" spans="1:137" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="85"/>
-      <c r="AF9" s="85"/>
-      <c r="AG9" s="85"/>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="63"/>
-      <c r="AN9" s="63"/>
-      <c r="AO9" s="63"/>
-      <c r="AP9" s="63"/>
-      <c r="AQ9" s="63"/>
-      <c r="AR9" s="63"/>
-      <c r="AS9" s="63"/>
-      <c r="AT9" s="63"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="176"/>
+      <c r="Y9" s="176"/>
+      <c r="Z9" s="176"/>
+      <c r="AA9" s="176"/>
+      <c r="AB9" s="176"/>
+      <c r="AC9" s="176"/>
+      <c r="AD9" s="176"/>
+      <c r="AE9" s="176"/>
+      <c r="AF9" s="176"/>
+      <c r="AG9" s="176"/>
+      <c r="AH9" s="176"/>
+      <c r="AI9" s="176"/>
+      <c r="AJ9" s="176"/>
+      <c r="AK9" s="176"/>
+      <c r="AL9" s="176"/>
+      <c r="AM9" s="176"/>
+      <c r="AN9" s="176"/>
+      <c r="AO9" s="176"/>
+      <c r="AP9" s="176"/>
+      <c r="AQ9" s="176"/>
+      <c r="AR9" s="176"/>
+      <c r="AS9" s="176"/>
+      <c r="AT9" s="176"/>
       <c r="AU9" s="1"/>
       <c r="AV9" s="20"/>
       <c r="AW9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
@@ -6918,7 +6918,7 @@
       <c r="BZ9" s="28"/>
       <c r="CA9" s="28"/>
       <c r="CC9" s="167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CD9" s="167"/>
       <c r="CE9" s="167"/>
@@ -6972,7 +6972,7 @@
     <row r="10" spans="1:137" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -6982,7 +6982,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="168" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="168"/>
       <c r="L10" s="168"/>
@@ -7023,7 +7023,7 @@
       <c r="AU10" s="1"/>
       <c r="AV10" s="20"/>
       <c r="AW10" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AX10" s="55"/>
       <c r="AY10" s="55"/>
@@ -7054,7 +7054,7 @@
       <c r="BX10" s="55"/>
       <c r="BY10" s="55"/>
       <c r="BZ10" s="82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CA10" s="82"/>
       <c r="CB10" s="82"/>
@@ -7111,7 +7111,7 @@
     <row r="11" spans="1:137" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="94"/>
       <c r="D11" s="94"/>
@@ -7160,7 +7160,7 @@
       <c r="AU11" s="1"/>
       <c r="AV11" s="20"/>
       <c r="AW11" s="169" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AX11" s="169"/>
       <c r="AY11" s="169"/>
@@ -7182,7 +7182,7 @@
       <c r="BO11" s="169"/>
       <c r="BP11" s="169"/>
       <c r="BQ11" s="170" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BR11" s="170"/>
       <c r="BS11" s="170"/>
@@ -7248,7 +7248,7 @@
     <row r="12" spans="1:137" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="94"/>
       <c r="D12" s="94"/>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="13" spans="1:137" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -7350,7 +7350,7 @@
       <c r="AU13" s="1"/>
       <c r="AV13" s="20"/>
       <c r="AW13" s="154" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AX13" s="154"/>
       <c r="AY13" s="154"/>
@@ -7511,7 +7511,7 @@
       <c r="BW14" s="156"/>
       <c r="BX14" s="157"/>
       <c r="BY14" s="155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BZ14" s="156"/>
       <c r="CA14" s="156"/>
@@ -7543,7 +7543,7 @@
       <c r="DA14" s="156"/>
       <c r="DB14" s="157"/>
       <c r="DC14" s="161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="DD14" s="162"/>
       <c r="DE14" s="162"/>
@@ -7747,7 +7747,7 @@
       <c r="AU16" s="73"/>
       <c r="AV16" s="20"/>
       <c r="AW16" s="123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX16" s="124"/>
       <c r="AY16" s="124"/>
@@ -7777,7 +7777,7 @@
       <c r="BW16" s="124"/>
       <c r="BX16" s="125"/>
       <c r="BY16" s="148" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BZ16" s="149"/>
       <c r="CA16" s="149"/>
@@ -8009,7 +8009,7 @@
       <c r="AU18" s="30"/>
       <c r="AV18" s="20"/>
       <c r="AW18" s="123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AX18" s="124"/>
       <c r="AY18" s="124"/>
@@ -8039,7 +8039,7 @@
       <c r="BW18" s="124"/>
       <c r="BX18" s="125"/>
       <c r="BY18" s="148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BZ18" s="149"/>
       <c r="CA18" s="149"/>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="19" spans="1:129" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -8119,7 +8119,7 @@
       <c r="T19" s="140"/>
       <c r="U19" s="1"/>
       <c r="V19" s="94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W19" s="94"/>
       <c r="X19" s="94"/>
@@ -8241,7 +8241,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M20" s="84"/>
       <c r="N20" s="84"/>
@@ -8253,7 +8253,7 @@
       <c r="T20" s="84"/>
       <c r="U20" s="33"/>
       <c r="V20" s="84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W20" s="84"/>
       <c r="X20" s="84"/>
@@ -8282,7 +8282,7 @@
       <c r="AU20" s="53"/>
       <c r="AV20" s="20"/>
       <c r="AW20" s="123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX20" s="124"/>
       <c r="AY20" s="124"/>
@@ -8312,7 +8312,7 @@
       <c r="BW20" s="124"/>
       <c r="BX20" s="125"/>
       <c r="BY20" s="141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BZ20" s="142"/>
       <c r="CA20" s="142"/>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="21" spans="1:129" s="11" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="147" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="147"/>
       <c r="C21" s="147"/>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="22" spans="1:129" s="11" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="122"/>
       <c r="C22" s="122"/>
@@ -8551,7 +8551,7 @@
       <c r="AU22" s="49"/>
       <c r="AV22" s="20"/>
       <c r="AW22" s="123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX22" s="124"/>
       <c r="AY22" s="124"/>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="24" spans="1:129" s="11" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -8774,7 +8774,7 @@
       <c r="AU24" s="1"/>
       <c r="AV24" s="20"/>
       <c r="AW24" s="123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX24" s="124"/>
       <c r="AY24" s="124"/>
@@ -8804,7 +8804,7 @@
       <c r="BW24" s="124"/>
       <c r="BX24" s="125"/>
       <c r="BY24" s="134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BZ24" s="135"/>
       <c r="CA24" s="135"/>
@@ -8876,7 +8876,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="92"/>
       <c r="R25" s="92"/>
@@ -8994,7 +8994,7 @@
     </row>
     <row r="26" spans="1:129" s="11" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="84"/>
       <c r="C26" s="84"/>
@@ -9011,7 +9011,7 @@
       <c r="N26" s="33"/>
       <c r="O26" s="33"/>
       <c r="P26" s="84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q26" s="84"/>
       <c r="R26" s="84"/>
@@ -9048,7 +9048,7 @@
     </row>
     <row r="27" spans="1:129" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="104"/>
       <c r="C27" s="104"/>
@@ -9146,7 +9146,7 @@
       <c r="CO27" s="96"/>
       <c r="CP27" s="97"/>
       <c r="CQ27" s="101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CR27" s="102"/>
       <c r="CS27" s="102"/>
@@ -9279,7 +9279,7 @@
       <c r="CO28" s="99"/>
       <c r="CP28" s="100"/>
       <c r="CQ28" s="105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CR28" s="106"/>
       <c r="CS28" s="106"/>
@@ -9293,7 +9293,7 @@
       <c r="DA28" s="106"/>
       <c r="DB28" s="107"/>
       <c r="DC28" s="105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DD28" s="106"/>
       <c r="DE28" s="106"/>
@@ -9306,7 +9306,7 @@
       <c r="DL28" s="106"/>
       <c r="DM28" s="107"/>
       <c r="DN28" s="111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DO28" s="112"/>
       <c r="DP28" s="112"/>
@@ -9496,7 +9496,7 @@
       <c r="AU30" s="30"/>
       <c r="AV30" s="20"/>
       <c r="AW30" s="95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX30" s="96"/>
       <c r="AY30" s="96"/>
@@ -9511,7 +9511,7 @@
       <c r="BH30" s="96"/>
       <c r="BI30" s="97"/>
       <c r="BJ30" s="95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BK30" s="96"/>
       <c r="BL30" s="96"/>
@@ -9546,7 +9546,7 @@
       <c r="CO30" s="96"/>
       <c r="CP30" s="31"/>
       <c r="CQ30" s="95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CR30" s="96"/>
       <c r="CS30" s="96"/>
@@ -9560,7 +9560,7 @@
       <c r="DA30" s="96"/>
       <c r="DB30" s="97"/>
       <c r="DC30" s="95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DD30" s="96"/>
       <c r="DE30" s="96"/>
@@ -9573,7 +9573,7 @@
       <c r="DL30" s="96"/>
       <c r="DM30" s="97"/>
       <c r="DN30" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="DO30" s="112"/>
       <c r="DP30" s="112"/>
@@ -9722,7 +9722,7 @@
       <c r="AT32" s="66"/>
       <c r="AV32" s="20"/>
       <c r="AW32" s="95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX32" s="96"/>
       <c r="AY32" s="96"/>
@@ -9737,7 +9737,7 @@
       <c r="BH32" s="96"/>
       <c r="BI32" s="97"/>
       <c r="BJ32" s="95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BK32" s="96"/>
       <c r="BL32" s="96"/>
@@ -9829,7 +9829,7 @@
       <c r="S33" s="73"/>
       <c r="T33" s="73"/>
       <c r="U33" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V33" s="66"/>
       <c r="W33" s="66"/>
@@ -9988,7 +9988,7 @@
       <c r="AU34" s="1"/>
       <c r="AV34" s="20"/>
       <c r="AW34" s="95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX34" s="96"/>
       <c r="AY34" s="96"/>
@@ -10003,7 +10003,7 @@
       <c r="BH34" s="96"/>
       <c r="BI34" s="97"/>
       <c r="BJ34" s="95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BK34" s="96"/>
       <c r="BL34" s="96"/>
@@ -10075,7 +10075,7 @@
     </row>
     <row r="35" spans="1:129" s="11" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="T35" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV35" s="20"/>
       <c r="AW35" s="114"/>
@@ -10298,7 +10298,7 @@
       <c r="CO37" s="96"/>
       <c r="CP37" s="97"/>
       <c r="CQ37" s="101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CR37" s="102"/>
       <c r="CS37" s="102"/>
@@ -10337,7 +10337,7 @@
     </row>
     <row r="38" spans="1:129" s="11" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A38" s="104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="104"/>
       <c r="C38" s="104"/>
@@ -10433,7 +10433,7 @@
       <c r="CO38" s="99"/>
       <c r="CP38" s="100"/>
       <c r="CQ38" s="105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CR38" s="106"/>
       <c r="CS38" s="106"/>
@@ -10447,7 +10447,7 @@
       <c r="DA38" s="106"/>
       <c r="DB38" s="107"/>
       <c r="DC38" s="105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DD38" s="106"/>
       <c r="DE38" s="106"/>
@@ -10460,7 +10460,7 @@
       <c r="DL38" s="106"/>
       <c r="DM38" s="107"/>
       <c r="DN38" s="111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DO38" s="112"/>
       <c r="DP38" s="112"/>
@@ -10654,7 +10654,7 @@
       <c r="AU40" s="69"/>
       <c r="AV40" s="20"/>
       <c r="AW40" s="95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX40" s="96"/>
       <c r="AY40" s="96"/>
@@ -10871,7 +10871,7 @@
       <c r="AT42" s="9"/>
       <c r="AV42" s="20"/>
       <c r="AW42" s="95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX42" s="96"/>
       <c r="AY42" s="96"/>
@@ -11133,7 +11133,7 @@
       <c r="AU44" s="77"/>
       <c r="AV44" s="20"/>
       <c r="AW44" s="95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX44" s="96"/>
       <c r="AY44" s="96"/>
@@ -11238,7 +11238,7 @@
       <c r="S45" s="24"/>
       <c r="T45" s="24"/>
       <c r="U45" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V45" s="25"/>
       <c r="W45" s="25"/>
@@ -11529,7 +11529,7 @@
       <c r="AU47" s="1"/>
       <c r="AV47" s="20"/>
       <c r="AW47" s="117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX47" s="118"/>
       <c r="AY47" s="118"/>
@@ -11589,7 +11589,7 @@
       <c r="DA47" s="118"/>
       <c r="DB47" s="119"/>
       <c r="DC47" s="86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DD47" s="87"/>
       <c r="DE47" s="87"/>
@@ -11877,7 +11877,7 @@
     </row>
     <row r="50" spans="1:129" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -11929,7 +11929,7 @@
       <c r="AU50" s="1"/>
       <c r="AV50" s="20"/>
       <c r="AW50" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1"/>
@@ -11953,7 +11953,7 @@
       <c r="BQ50" s="93"/>
       <c r="BR50" s="1"/>
       <c r="BS50" s="94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BT50" s="94"/>
       <c r="BU50" s="94"/>
@@ -12031,7 +12031,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q51" s="94"/>
       <c r="R51" s="94"/>
@@ -12077,7 +12077,7 @@
       <c r="BF51" s="1"/>
       <c r="BG51" s="1"/>
       <c r="BH51" s="84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BI51" s="84"/>
       <c r="BJ51" s="84"/>
@@ -12089,7 +12089,7 @@
       <c r="BP51" s="84"/>
       <c r="BQ51" s="33"/>
       <c r="BR51" s="85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BS51" s="85"/>
       <c r="BT51" s="85"/>
@@ -12153,7 +12153,7 @@
     </row>
     <row r="52" spans="1:129" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" s="84"/>
       <c r="C52" s="84"/>
@@ -12170,7 +12170,7 @@
       <c r="N52" s="33"/>
       <c r="O52" s="33"/>
       <c r="P52" s="84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q52" s="84"/>
       <c r="R52" s="84"/>
@@ -12205,7 +12205,7 @@
       <c r="AU52" s="1"/>
       <c r="AV52" s="20"/>
       <c r="AW52" s="117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX52" s="118"/>
       <c r="AY52" s="118"/>
@@ -12265,7 +12265,7 @@
       <c r="DA52" s="118"/>
       <c r="DB52" s="119"/>
       <c r="DC52" s="86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DD52" s="87"/>
       <c r="DE52" s="87"/>
@@ -12554,7 +12554,7 @@
     </row>
     <row r="55" spans="1:129" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
@@ -12582,7 +12582,7 @@
       <c r="Y55" s="24"/>
       <c r="Z55" s="24"/>
       <c r="AA55" s="92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB55" s="92"/>
       <c r="AC55" s="92"/>
@@ -12605,7 +12605,7 @@
       <c r="AT55" s="92"/>
       <c r="AU55" s="53"/>
       <c r="AW55" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX55" s="1"/>
       <c r="AY55" s="1"/>
@@ -12629,7 +12629,7 @@
       <c r="BQ55" s="93"/>
       <c r="BR55" s="1"/>
       <c r="BS55" s="94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BT55" s="94"/>
       <c r="BU55" s="94"/>
@@ -12708,7 +12708,7 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R56" s="84"/>
       <c r="S56" s="84"/>
@@ -12720,7 +12720,7 @@
       <c r="Y56" s="42"/>
       <c r="Z56" s="42"/>
       <c r="AA56" s="84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB56" s="84"/>
       <c r="AC56" s="84"/>
@@ -12754,7 +12754,7 @@
       <c r="BF56" s="1"/>
       <c r="BG56" s="1"/>
       <c r="BH56" s="84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BI56" s="84"/>
       <c r="BJ56" s="84"/>
@@ -12766,7 +12766,7 @@
       <c r="BP56" s="84"/>
       <c r="BQ56" s="33"/>
       <c r="BR56" s="85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BS56" s="85"/>
       <c r="BT56" s="85"/>
@@ -13319,7 +13319,7 @@
       <c r="AT72" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="101">
     <mergeCell ref="AJ2:BP2"/>
     <mergeCell ref="BS2:BY2"/>
     <mergeCell ref="BZ2:CE2"/>
@@ -13329,7 +13329,6 @@
     <mergeCell ref="BJ4:BP4"/>
     <mergeCell ref="BY4:CC4"/>
     <mergeCell ref="CG4:CY4"/>
-    <mergeCell ref="X9:AG9"/>
     <mergeCell ref="CC9:CZ9"/>
     <mergeCell ref="J10:AT10"/>
     <mergeCell ref="B11:AT11"/>
@@ -13337,9 +13336,9 @@
     <mergeCell ref="BQ11:CF11"/>
     <mergeCell ref="DA4:DF4"/>
     <mergeCell ref="B6:AT6"/>
-    <mergeCell ref="B7:AT8"/>
     <mergeCell ref="AW7:CF8"/>
     <mergeCell ref="CI7:DJ8"/>
+    <mergeCell ref="B7:AT9"/>
     <mergeCell ref="AW16:BX17"/>
     <mergeCell ref="BY16:DB17"/>
     <mergeCell ref="DC16:DY17"/>
